--- a/docs/excel/homicides.xlsx
+++ b/docs/excel/homicides.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Kiosk_LL_Public\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Kiosk_LL_Public\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="Murder" sheetId="1" r:id="rId1"/>
     <sheet name="Micheal" sheetId="2" r:id="rId2"/>
+    <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="281">
   <si>
     <t>daimler</t>
   </si>
@@ -897,6 +898,60 @@
   </si>
   <si>
     <t>REDHAIR(BORIS,1997/8)Car, Husband dies while onsite 1/4</t>
+  </si>
+  <si>
+    <t>Town Link</t>
+  </si>
+  <si>
+    <t>Boris &amp; Mr. Fesenbeck</t>
+  </si>
+  <si>
+    <t>Karlsruhe, Baden-Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   is working now in Karlsruhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  will be working then </t>
+  </si>
+  <si>
+    <t>Esaw Sr Scotts Valley</t>
+  </si>
+  <si>
+    <t>Gorbachev(Redhair)</t>
+  </si>
+  <si>
+    <t>Scotts Valley (C++ Borland)</t>
+  </si>
+  <si>
+    <t>41. Atari Tim Cook, Steve Jobs</t>
+  </si>
+  <si>
+    <t>0.0001 God.marx that one.&lt;&gt;</t>
+  </si>
+  <si>
+    <t>vggg.default.civil_code(redhair)</t>
+  </si>
+  <si>
+    <t>Photos Daugther: Ronald Regaon Califonia --Gorbachev</t>
+  </si>
+  <si>
+    <t>Sepertion</t>
+  </si>
+  <si>
+    <t>Budenhagen/Budenhagen/jobs/jobs</t>
+  </si>
+  <si>
+    <t>IS-A-BELL(&lt;s&gt;mother looks like merkel&lt;/s&gt;,KOHL.MEIRKEL.marx(weight/hair of buddenhadn))</t>
+  </si>
+  <si>
+    <t>TheHun Cat,Deere, nonPocliPentagon</t>
+  </si>
+  <si>
+    <t>after jacking off button to wife seperated</t>
+  </si>
+  <si>
+    <t>Breuer</t>
   </si>
 </sst>
 </file>
@@ -1755,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,402 +3626,421 @@
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35">
+      <c r="B35" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" t="s">
+        <v>278</v>
+      </c>
+      <c r="V35" s="2"/>
+      <c r="AA35" s="9"/>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="Y36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="Y35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="6"/>
-      <c r="X36" s="1" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="6"/>
+      <c r="X37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
-      <c r="E37" t="s">
+    <row r="38" spans="1:35">
+      <c r="E38" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="AE37" s="1" t="s">
+      <c r="G38" s="11"/>
+      <c r="AE38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH37" t="s">
+      <c r="AH38" t="s">
         <v>121</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AI38" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="E38" s="5">
-        <v>1988</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="5"/>
-      <c r="I38" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" t="s">
-        <v>75</v>
-      </c>
-      <c r="X38" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="E39" s="5">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="11"/>
       <c r="H39" s="5"/>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="Y39" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="E40" s="5">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="11"/>
       <c r="H40" s="5"/>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="X40" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z40" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="AE40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="E41" s="5">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="11"/>
       <c r="H41" s="5"/>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z41" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="AE41" t="s">
         <v>114</v>
       </c>
-      <c r="AI41" t="s">
-        <v>137</v>
+      <c r="AH41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:35">
       <c r="E42" s="5">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="11"/>
       <c r="H42" s="5"/>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AE42" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="E43" s="5">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="11"/>
       <c r="H43" s="5"/>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="X43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="Z43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AE43" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="E44" s="5">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="11"/>
       <c r="H44" s="5"/>
       <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="E45" s="5">
+        <v>2004</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" t="s">
         <v>67</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>23</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X45" t="s">
         <v>67</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AE45" t="s">
         <v>127</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AI45" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:35">
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:35">
-      <c r="E47" s="5">
-        <v>2013</v>
-      </c>
-      <c r="F47" s="5"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="X47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="48" spans="1:35">
       <c r="E48" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
       <c r="X48" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="AE48" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="5:34">
       <c r="E49" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="11"/>
       <c r="H49" s="5"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
       <c r="X49" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="Y49" t="s">
         <v>23</v>
       </c>
       <c r="Z49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="5:34">
+      <c r="E50" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="5"/>
+      <c r="X50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z50" t="s">
         <v>139</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AE50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="5:34">
-      <c r="Y50" t="s">
+    <row r="51" spans="5:34">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="5:34">
-      <c r="E52" t="s">
+    <row r="53" spans="5:34">
+      <c r="E53" t="s">
         <v>135</v>
       </c>
-      <c r="AH52" t="s">
+      <c r="AH53" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="5:34">
-      <c r="X53" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="54" spans="5:34">
       <c r="X54" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="5:34">
       <c r="X55" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="5:34">
       <c r="X56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="5:34">
+      <c r="X57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:34">
-      <c r="E60" t="s">
+    <row r="61" spans="5:34">
+      <c r="E61" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="5:34" ht="16.5">
-      <c r="E61" s="8">
-        <v>1997</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="X61" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="62" spans="5:34" ht="16.5">
       <c r="E62" s="8">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="X62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="5:34" ht="16.5">
       <c r="E63" s="8">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="X63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="5:34" ht="16.5">
       <c r="E64" s="8">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="X64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="5:24" ht="16.5">
       <c r="E65" s="8">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="X65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="5:24" ht="16.5">
+      <c r="E66" s="8">
+        <v>2016</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="X66" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4502,4 +4576,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7">
+        <v>44963</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>1983</v>
+      </c>
+      <c r="G10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>